--- a/Load/ontology/script/aggregates_over_time_detection_template.xlsx
+++ b/Load/ontology/script/aggregates_over_time_detection_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E0E6A-5DBE-3C49-AF95-D8A2F617C3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD7AFD-F69F-E645-AB32-1B03787E8E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,10 +1100,10 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M8" si="0">"Cumulative sum "&amp;IF($G3="",$F3,"")
+        <f>TRIM("Cumulative sum "&amp;IF($G3="",$F3,"")
 &amp;IF(OR($H3="",$H3="LT",$H3="ST"),$G3,"")
 &amp;IF(AND($K3="LT",H3="ST")," LT-neg ST-pos",
 IF(OR($H3="",$H3&lt;&gt;"LT",$H3&lt;&gt;"ST"),""," ")
@@ -1217,15 +1217,15 @@
 &amp;IF($I3&lt;&gt;""," "&amp;$I3&amp;"-pos","")
 &amp;IF($K3&lt;&gt;""," "&amp;$K3&amp;"-neg",""))
 &amp;IF($C3&lt;&gt;""," "&amp;$C3,"")&amp;" stools"
-&amp;IF($B3&lt;&gt;"",", by "&amp;$B3,"")</f>
+&amp;IF($B3&lt;&gt;"",", by "&amp;$B3,""))</f>
         <v>Cumulative sum Vibrio cholerae-pos 1st diarrheal stools</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f>IF($H3="",IF($G3="",$F3,VLOOKUP($G3,$Q$3:$R$1000,2,FALSE)),VLOOKUP($H3,$Q$3:$R$1000,2,FALSE))&amp;" aggregate data"</f>
+        <f>TRIM(IF($H3="",IF($G3="",$F3,VLOOKUP($G3,$Q$3:$R$1000,2,FALSE)),VLOOKUP($H3,$Q$3:$R$1000,2,FALSE))&amp;" aggregate data")</f>
         <v>Vibrio cholerae aggregate data</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>$D3&amp;" detection aggregate data"</f>
+        <f>TRIM($D3&amp;" detection aggregate data")</f>
         <v>Bacteria detection aggregate data</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1252,15 +1252,25 @@
         <v>18</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M13" si="0">TRIM("Cumulative sum "&amp;IF($G4="",$F4,"")
+&amp;IF(OR($H4="",$H4="LT",$H4="ST"),$G4,"")
+&amp;IF(AND($K4="LT",H4="ST")," LT-neg ST-pos",
+IF(OR($H4="",$H4&lt;&gt;"LT",$H4&lt;&gt;"ST"),""," ")
+&amp;IF($H4&lt;&gt;"",$H4,"")
+&amp;"-pos"
+&amp;IF($J4&lt;&gt;""," "&amp;$J4,"")
+&amp;IF($I4&lt;&gt;""," "&amp;$I4&amp;"-pos","")
+&amp;IF($K4&lt;&gt;""," "&amp;$K4&amp;"-neg",""))
+&amp;IF($C4&lt;&gt;""," "&amp;$C4,"")&amp;" stools"
+&amp;IF($B4&lt;&gt;"",", by "&amp;$B4,""))</f>
         <v>Cumulative sum Adenovirus-pos 1st monthly stools, by ELISA</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N13" si="1">IF($H4="",IF($G4="",$F4,VLOOKUP($G4,$Q$3:$R$1000,2,FALSE)),VLOOKUP($H4,$Q$3:$R$1000,2,FALSE))&amp;" aggregate data"</f>
+        <f t="shared" ref="N4:N13" si="1">TRIM(IF($H4="",IF($G4="",$F4,VLOOKUP($G4,$Q$3:$R$1000,2,FALSE)),VLOOKUP($H4,$Q$3:$R$1000,2,FALSE))&amp;" aggregate data")</f>
         <v>Adenovirus aggregate data</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O13" si="2">$D4&amp;" detection aggregate data"</f>
+        <f t="shared" ref="O4:O13" si="2">TRIM($D4&amp;" detection aggregate data")</f>
         <v>Virus detection aggregate data</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1412,17 +1422,7 @@
         <v>25</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" ref="M9:M12" si="3">"Cumulative sum "&amp;IF($G9="",$F9,"")
-&amp;IF(OR($H9="",$H9="LT",$H9="ST"),$G9,"")
-&amp;IF(AND($K9="LT",H9="ST")," LT-neg ST-pos",
-IF(OR($H9="",$H9&lt;&gt;"LT",$H9&lt;&gt;"ST"),""," ")
-&amp;IF($H9&lt;&gt;"",$H9,"")
-&amp;"-pos"
-&amp;IF($J9&lt;&gt;""," "&amp;$J9,"")
-&amp;IF($I9&lt;&gt;""," "&amp;$I9&amp;"-pos","")
-&amp;IF($K9&lt;&gt;""," "&amp;$K9&amp;"-neg",""))
-&amp;IF($C9&lt;&gt;""," "&amp;$C9,"")&amp;" stools"
-&amp;IF($B9&lt;&gt;"",", by "&amp;$B9,"")</f>
+        <f t="shared" si="0"/>
         <v>Cumulative sum Chikungunya-pos stools, by SD Bioline IgM ELISA</v>
       </c>
       <c r="N9" s="2" t="str">
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Cumulative sum ETEC LT-neg ST-pos stools</v>
       </c>
       <c r="N10" s="2" t="str">
@@ -1492,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Cumulative sum STEC-pos stools</v>
       </c>
       <c r="N11" s="2" t="str">
@@ -1527,7 +1527,7 @@
         <v>58</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Cumulative sum aaiC-pos stools</v>
       </c>
       <c r="N12" s="2" t="str">
@@ -1565,17 +1565,7 @@
         <v>62</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>"Cumulative sum "&amp;IF($G13="",$F13,"")
-&amp;IF(OR($H13="",$H13="LT",$H13="ST"),$G13,"")
-&amp;IF(AND($K13="LT",H13="ST")," LT-neg ST-pos",
-IF(OR($H13="",$H13&lt;&gt;"LT",$H13&lt;&gt;"ST"),""," ")
-&amp;IF($H13&lt;&gt;"",$H13,"")
-&amp;"-pos"
-&amp;IF($J13&lt;&gt;""," "&amp;$J13,"")
-&amp;IF($I13&lt;&gt;""," "&amp;$I13&amp;"-pos","")
-&amp;IF($K13&lt;&gt;""," "&amp;$K13&amp;"-neg",""))
-&amp;IF($C13&lt;&gt;""," "&amp;$C13,"")&amp;" stools"
-&amp;IF($B13&lt;&gt;"",", by "&amp;$B13,"")</f>
+        <f t="shared" si="0"/>
         <v>Cumulative sum ipaH-pos 1st diarrheal stools</v>
       </c>
       <c r="N13" s="2" t="str">

--- a/Load/ontology/script/aggregates_over_time_detection_template.xlsx
+++ b/Load/ontology/script/aggregates_over_time_detection_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/ontology/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD7AFD-F69F-E645-AB32-1B03787E8E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F0FFC7-60DE-CF4A-92B9-E6E519D9DA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,10 +1100,10 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1209,13 +1209,12 @@
       <c r="M3" s="2" t="str">
         <f>TRIM("Cumulative sum "&amp;IF($G3="",$F3,"")
 &amp;IF(OR($H3="",$H3="LT",$H3="ST"),$G3,"")
-&amp;IF(AND($K3="LT",H3="ST")," LT-neg ST-pos",
-IF(OR($H3="",$H3&lt;&gt;"LT",$H3&lt;&gt;"ST"),""," ")
+&amp;IF(OR($H3="",$H3&lt;&gt;"LT",$H3&lt;&gt;"ST"),""," ")
 &amp;IF($H3&lt;&gt;"",$H3,"")
 &amp;"-pos"
 &amp;IF($J3&lt;&gt;""," "&amp;$J3,"")
 &amp;IF($I3&lt;&gt;""," "&amp;$I3&amp;"-pos","")
-&amp;IF($K3&lt;&gt;""," "&amp;$K3&amp;"-neg",""))
+&amp;IF($K3&lt;&gt;""," "&amp;$K3&amp;"-neg","")
 &amp;IF($C3&lt;&gt;""," "&amp;$C3,"")&amp;" stools"
 &amp;IF($B3&lt;&gt;"",", by "&amp;$B3,""))</f>
         <v>Cumulative sum Vibrio cholerae-pos 1st diarrheal stools</v>
@@ -1254,13 +1253,12 @@
       <c r="M4" s="2" t="str">
         <f t="shared" ref="M4:M13" si="0">TRIM("Cumulative sum "&amp;IF($G4="",$F4,"")
 &amp;IF(OR($H4="",$H4="LT",$H4="ST"),$G4,"")
-&amp;IF(AND($K4="LT",H4="ST")," LT-neg ST-pos",
-IF(OR($H4="",$H4&lt;&gt;"LT",$H4&lt;&gt;"ST"),""," ")
+&amp;IF(OR($H4="",$H4&lt;&gt;"LT",$H4&lt;&gt;"ST"),""," ")
 &amp;IF($H4&lt;&gt;"",$H4,"")
 &amp;"-pos"
 &amp;IF($J4&lt;&gt;""," "&amp;$J4,"")
 &amp;IF($I4&lt;&gt;""," "&amp;$I4&amp;"-pos","")
-&amp;IF($K4&lt;&gt;""," "&amp;$K4&amp;"-neg",""))
+&amp;IF($K4&lt;&gt;""," "&amp;$K4&amp;"-neg","")
 &amp;IF($C4&lt;&gt;""," "&amp;$C4,"")&amp;" stools"
 &amp;IF($B4&lt;&gt;"",", by "&amp;$B4,""))</f>
         <v>Cumulative sum Adenovirus-pos 1st monthly stools, by ELISA</v>
@@ -1461,7 +1459,7 @@
       </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Cumulative sum ETEC LT-neg ST-pos stools</v>
+        <v>Cumulative sum ETECST-pos LT-neg stools</v>
       </c>
       <c r="N10" s="2" t="str">
         <f t="shared" si="1"/>
